--- a/outputs-r202/g__CAG-485.xlsx
+++ b/outputs-r202/g__CAG-485.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -769,6 +774,11 @@
           <t>s__CAG-485 sp900550645</t>
         </is>
       </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>s__CAG-485 sp900550645(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -894,6 +904,11 @@
         <v>0.9524643269802683</v>
       </c>
       <c r="AO3" t="inlineStr">
+        <is>
+          <t>s__CAG-485 sp900321585</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>s__CAG-485 sp900321585</t>
         </is>

--- a/outputs-r202/g__CAG-485.xlsx
+++ b/outputs-r202/g__CAG-485.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,125 +649,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG328.fasta</t>
+          <t>RUG713.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.490048359020812e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>1.490048359020812e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.490048359020812e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>1.49004835902081e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1.49004835902081e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>1.490048359020812e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>4.417045396699426e-12</v>
+        <v>0.001771146899714765</v>
       </c>
       <c r="I2" t="n">
-        <v>1.490048359020812e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>9.60361980129386e-08</v>
+        <v>0.0001460782556950772</v>
       </c>
       <c r="K2" t="n">
-        <v>1.49004835902081e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>1.49004835902081e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1482296296904504</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.49004835902081e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1482296296904504</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.49004835902081e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="U2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4967671213359592</v>
+        <v>0.9941066706266327</v>
       </c>
       <c r="W2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>8.71732841940845e-10</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.09708770790539537</v>
+        <v>2.069714853167106e-11</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.109685813775799</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.556859933787515e-09</v>
+        <v>0.003976103324817026</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.49004835902081e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.49004835902081e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.49004835902081e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.49004835902081e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.490048359020811e-13</v>
+        <v>2.220223165121702e-14</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.4967671213359592</v>
+        <v>0.9941066706266327</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -775,140 +775,6 @@
         </is>
       </c>
       <c r="AP2" t="inlineStr">
-        <is>
-          <t>s__CAG-485 sp900321585(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RUG713.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.001771146899714765</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0001460782556950772</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.9941066706266327</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8.71732841940845e-10</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2.069714853167106e-11</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.003976103324817026</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>2.220223165121702e-14</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.9941066706266327</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>s__CAG-485 sp900321585</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
         <is>
           <t>s__CAG-485 sp900321585</t>
         </is>
